--- a/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.708389585094279</v>
+        <v>8.708389585094277</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>8.585684951916287</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.655539032483183</v>
+        <v>8.655539032483182</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.564606356183331</v>
+        <v>8.55581679081957</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.417873911718857</v>
+        <v>8.407603644580954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.555070874399799</v>
+        <v>8.549168392967038</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.85750937733995</v>
+        <v>8.847144505323897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.721906578314888</v>
+        <v>8.723220960563694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.763572970105034</v>
+        <v>8.764805349158816</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>8.756061232172332</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.489634902633934</v>
+        <v>8.489634902633936</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>8.645008973077427</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.637099686139646</v>
+        <v>8.635328785668298</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.366940538677399</v>
+        <v>8.374279269512803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.552850458318577</v>
+        <v>8.556297599214462</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.86789039881025</v>
+        <v>8.864712844086824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.594893188859437</v>
+        <v>8.594820414713418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.717682111463555</v>
+        <v>8.718394284473243</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.951829792231498</v>
+        <v>8.9518297922315</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>8.867436215163156</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.799507207514864</v>
+        <v>8.803795534582195</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.752237855014096</v>
+        <v>8.75374716501433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.810975045485138</v>
+        <v>8.827414879890737</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.080899790400697</v>
+        <v>9.079260306670133</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.9870729067779</v>
+        <v>8.978623731476659</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.000057144277486</v>
+        <v>9.00567088284312</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.776520807700335</v>
+        <v>8.776520807700336</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>8.645344635749177</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.647062756552495</v>
+        <v>8.658153912561756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.499812302620793</v>
+        <v>8.501396134397993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.622159944228159</v>
+        <v>8.622220620438624</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.890910480780667</v>
+        <v>8.898636804307667</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.756650529615463</v>
+        <v>8.753957302497385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.797361185012971</v>
+        <v>8.79926456184217</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.726226639381069</v>
+        <v>8.735413822451324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.568784902495953</v>
+        <v>8.571813624679939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.679584446249322</v>
+        <v>8.675076416113621</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.854442119206722</v>
+        <v>8.856949262033721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.700517081932713</v>
+        <v>8.696999056000921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.773907301569235</v>
+        <v>8.769562548643771</v>
       </c>
     </row>
     <row r="19">
